--- a/municipal/სასტუმროები/სტუმრები/იმერეთი/საჩხერე.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/იმერეთი/საჩხერე.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -68,7 +68,52 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით საჩხერის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით საჩხერის მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +210,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,7 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -345,35 +404,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -657,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -675,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -742,66 +804,66 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
     </row>
     <row r="3" spans="1:61" s="32" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -879,14 +941,14 @@
       <c r="BI3" s="8"/>
     </row>
     <row r="4" spans="1:61" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="A4" s="46">
         <v>2010</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1064,14 +1126,14 @@
       </c>
     </row>
     <row r="11" spans="1:61" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39">
+      <c r="A11" s="43">
         <v>2011</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1249,14 +1311,14 @@
       </c>
     </row>
     <row r="18" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39">
+      <c r="A18" s="43">
         <v>2012</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -1434,14 +1496,14 @@
       </c>
     </row>
     <row r="25" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39">
+      <c r="A25" s="43">
         <v>2013</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -1619,14 +1681,14 @@
       </c>
     </row>
     <row r="32" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39">
+      <c r="A32" s="43">
         <v>2014</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
       <c r="AU32" s="21"/>
       <c r="AV32" s="21"/>
       <c r="AW32" s="21"/>
@@ -1764,14 +1826,14 @@
       </c>
     </row>
     <row r="39" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39">
+      <c r="A39" s="43">
         <v>2015</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -1832,19 +1894,19 @@
       <c r="A40" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="37">
         <v>3813</v>
       </c>
-      <c r="C40" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="43">
+      <c r="C40" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="37">
         <v>3813</v>
       </c>
-      <c r="E40" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="44" t="s">
+      <c r="E40" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="38" t="s">
         <v>8</v>
       </c>
       <c r="AK40" s="34"/>
@@ -1877,19 +1939,19 @@
       <c r="A41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="45">
+      <c r="B41" s="39">
         <v>3813</v>
       </c>
-      <c r="C41" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="45">
+      <c r="C41" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="39">
         <v>3813</v>
       </c>
-      <c r="E41" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="45" t="s">
+      <c r="E41" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1897,19 +1959,19 @@
       <c r="A42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="45" t="s">
+      <c r="B42" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1917,19 +1979,19 @@
       <c r="A43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="45" t="s">
+      <c r="B43" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1937,19 +1999,19 @@
       <c r="A44" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="45" t="s">
+      <c r="B44" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1957,31 +2019,31 @@
       <c r="A45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="46" t="s">
+      <c r="B45" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39">
+      <c r="A46" s="43">
         <v>2016</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -2159,14 +2221,14 @@
       </c>
     </row>
     <row r="53" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39">
+      <c r="A53" s="43">
         <v>2017</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
@@ -2227,19 +2289,19 @@
       <c r="A54" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="37">
         <v>1525</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="38">
         <v>1400</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="37">
         <v>125</v>
       </c>
-      <c r="E54" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="44" t="s">
+      <c r="E54" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2247,19 +2309,19 @@
       <c r="A55" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="45">
+      <c r="B55" s="39">
         <v>175</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="39">
         <v>50</v>
       </c>
-      <c r="D55" s="45">
+      <c r="D55" s="39">
         <v>125</v>
       </c>
-      <c r="E55" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="45" t="s">
+      <c r="E55" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2267,19 +2329,19 @@
       <c r="A56" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="45">
+      <c r="B56" s="39">
         <v>1350</v>
       </c>
-      <c r="C56" s="45">
+      <c r="C56" s="39">
         <v>1350</v>
       </c>
-      <c r="D56" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="45" t="s">
+      <c r="D56" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2287,19 +2349,19 @@
       <c r="A57" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="45">
+      <c r="B57" s="39">
         <v>400</v>
       </c>
-      <c r="C57" s="45">
+      <c r="C57" s="39">
         <v>400</v>
       </c>
-      <c r="D57" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="45" t="s">
+      <c r="D57" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2307,19 +2369,19 @@
       <c r="A58" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="39">
         <v>150</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="39">
         <v>150</v>
       </c>
-      <c r="D58" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="45" t="s">
+      <c r="D58" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2327,31 +2389,31 @@
       <c r="A59" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="46">
+      <c r="B59" s="40">
         <v>800</v>
       </c>
-      <c r="C59" s="46">
+      <c r="C59" s="40">
         <v>800</v>
       </c>
-      <c r="D59" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="46" t="s">
+      <c r="D59" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39">
+      <c r="A60" s="43">
         <v>2018</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -2529,14 +2591,14 @@
       </c>
     </row>
     <row r="67" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="39">
+      <c r="A67" s="43">
         <v>2019</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
@@ -2714,14 +2776,14 @@
       </c>
     </row>
     <row r="74" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="39">
+      <c r="A74" s="43">
         <v>2020</v>
       </c>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
@@ -2899,14 +2961,14 @@
       </c>
     </row>
     <row r="81" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="39">
+      <c r="A81" s="43">
         <v>2021</v>
       </c>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
@@ -2967,19 +3029,19 @@
       <c r="A82" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="43">
+      <c r="B82" s="37">
         <v>1068</v>
       </c>
-      <c r="C82" s="44">
+      <c r="C82" s="38">
         <v>11</v>
       </c>
-      <c r="D82" s="43">
+      <c r="D82" s="37">
         <v>1057</v>
       </c>
-      <c r="E82" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="44" t="s">
+      <c r="E82" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2987,19 +3049,19 @@
       <c r="A83" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="45">
+      <c r="B83" s="39">
         <v>905</v>
       </c>
-      <c r="C83" s="45">
+      <c r="C83" s="39">
         <v>11</v>
       </c>
-      <c r="D83" s="45">
+      <c r="D83" s="39">
         <v>894</v>
       </c>
-      <c r="E83" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="45" t="s">
+      <c r="E83" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3007,19 +3069,19 @@
       <c r="A84" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="45">
+      <c r="B84" s="39">
         <v>163</v>
       </c>
-      <c r="C84" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="45">
+      <c r="C84" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="39">
         <v>163</v>
       </c>
-      <c r="E84" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="45" t="s">
+      <c r="E84" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3027,19 +3089,19 @@
       <c r="A85" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="45">
+      <c r="B85" s="39">
         <v>81</v>
       </c>
-      <c r="C85" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="45">
+      <c r="C85" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="39">
         <v>81</v>
       </c>
-      <c r="E85" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="45" t="s">
+      <c r="E85" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3047,19 +3109,19 @@
       <c r="A86" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="45">
+      <c r="B86" s="39">
         <v>36</v>
       </c>
-      <c r="C86" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="45">
+      <c r="C86" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="39">
         <v>36</v>
       </c>
-      <c r="E86" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="45" t="s">
+      <c r="E86" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3067,32 +3129,35 @@
       <c r="A87" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="46">
+      <c r="B87" s="40">
         <v>46</v>
       </c>
-      <c r="C87" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="46">
+      <c r="C87" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="40">
         <v>46</v>
       </c>
-      <c r="E87" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="46" t="s">
-        <v>8</v>
-      </c>
+      <c r="E87" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
+  <mergeCells count="25">
+    <mergeCell ref="V2:Z2"/>
     <mergeCell ref="BE2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A11:F11"/>
@@ -3106,9 +3171,17 @@
     <mergeCell ref="AZ2:BD2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="L2:P2"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="V2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
